--- a/data/trans_bre/P25A_12_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_12_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>37,35</t>
+          <t>15,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>101,75%</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>439,23%</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>156,83%</t>
+          <t>102,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>144,57%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>67,15%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>882,21%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>316,74%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>127,31%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 6,37</t>
+          <t>-1,58; 6,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 10,15</t>
+          <t>-2,61; 8,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,87</t>
+          <t>-3,93; 6,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 76,06</t>
+          <t>8,06; 24,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-66,9; —</t>
+          <t>2,89; 16,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,4; —</t>
+          <t>-0,89; 15,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 1233,08</t>
+          <t>-61,2; 965,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,24; —</t>
+          <t>-72,67; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-71,27; 696,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>128,92; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 1735,68</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-18,28; 852,94</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>123,91%</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>140,65%</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>125,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>144,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>79,48%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>112,16%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>91,14%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>152,6%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 8,85</t>
+          <t>-1,26; 9,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 6,75</t>
+          <t>-0,21; 7,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,94</t>
+          <t>-1,16; 5,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 38,98</t>
+          <t>-1,52; 8,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 557,74</t>
+          <t>-0,93; 12,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 678,78</t>
+          <t>1,19; 12,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 480,85</t>
+          <t>-49,4; 662,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,92; 269,0</t>
+          <t>-22,52; 776,45</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,27; 570,67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-32,2; 723,36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-13,92; 376,49</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 679,1</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-25,67</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>157,52%</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>123,5%</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>645,71%</t>
+          <t>89,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,35%</t>
+          <t>128,55%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>657,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>60,22%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>139,77%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>210,41%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 10,86</t>
+          <t>-0,54; 6,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 8,07</t>
+          <t>1,34; 8,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,45</t>
+          <t>3,45; 8,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 0,97</t>
+          <t>-1,42; 8,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 635,66</t>
+          <t>2,1; 14,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 398,1</t>
+          <t>2,16; 10,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>126,73; 2766,4</t>
+          <t>-18,66; 382,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,97; -1,77</t>
+          <t>13,6; 406,77</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>132,2; 3170,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-22,18; 249,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20,69; 421,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>32,3; 681,43</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,31</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>171,84%</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>146,51%</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>160,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>138,56%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>69,1%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>202,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>76,06%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>76,23%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 10,03</t>
+          <t>2,26; 10,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 8,45</t>
+          <t>1,3; 8,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 8,01</t>
+          <t>0,01; 7,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 36,71</t>
+          <t>3,16; 13,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,48; 526,68</t>
+          <t>1,63; 13,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,47; 430,18</t>
+          <t>0,92; 10,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 203,42</t>
+          <t>32,19; 495,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 153,03</t>
+          <t>18,67; 411,05</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 188,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44,46; 654,58</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 209,14</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 204,69</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>69,09%</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,34%</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>132,3%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>86,13%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>131,42%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>74,84%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>125,32%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 7,2</t>
+          <t>-1,89; 7,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 8,82</t>
+          <t>-0,11; 9,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 10,38</t>
+          <t>1,22; 10,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 15,91</t>
+          <t>0,81; 14,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 305,55</t>
+          <t>-4,06; 10,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 296,8</t>
+          <t>2,2; 15,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,54; 389,45</t>
+          <t>-32,52; 296,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 32,49</t>
+          <t>-5,83; 272,24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11,43; 345,01</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 196,67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-24,0; 111,74</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,09; 278,66</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,0%</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>61,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>-8,79%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>52,05%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>306,89%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>227,49%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>51,36%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 9,05</t>
+          <t>-4,95; 9,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 4,04</t>
+          <t>-7,86; 4,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 6,41</t>
+          <t>-2,8; 9,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 40,82</t>
+          <t>1,88; 13,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,03; 519,05</t>
+          <t>3,52; 16,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 93,1</t>
+          <t>-2,84; 8,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,69; 264,95</t>
+          <t>-67,51; 499,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,29; 406,57</t>
+          <t>-63,56; 114,86</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-45,56; 441,6</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>16,3; 1514,4</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>32,36; 756,47</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-41,73; 346,06</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>116,24%</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>111,5%</t>
+          <t>102,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>86,06%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>108,15%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>156,52%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>105,13%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>111,14%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,92</t>
+          <t>1,64; 5,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,45</t>
+          <t>1,6; 5,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,55</t>
+          <t>2,1; 5,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 13,15</t>
+          <t>4,97; 9,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,15; 230,45</t>
+          <t>4,79; 10,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,88; 175,03</t>
+          <t>3,47; 8,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47,79; 203,69</t>
+          <t>29,41; 199,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 28,87</t>
+          <t>28,65; 166,36</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>43,25; 193,11</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>83,81; 266,96</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>59,1; 181,11</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>50,53; 188,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
